--- a/classifier_testing/classifier_testing_parameters.xlsx
+++ b/classifier_testing/classifier_testing_parameters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,6 +715,56 @@
         <v>25</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6063</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>bert_classifier_6063.pth</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6063_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>6412</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2690</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2140</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1582</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K7" t="n">
+        <v>16</v>
+      </c>
+      <c r="L7" t="n">
+        <v>512</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.9189399844115355</v>
+      </c>
+      <c r="N7" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/classifier_testing/classifier_testing_parameters.xlsx
+++ b/classifier_testing/classifier_testing_parameters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,6 +765,156 @@
         <v>25</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9668</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>bert_classifier_9668.pth</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>9668_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1773</v>
+      </c>
+      <c r="E8" t="n">
+        <v>846</v>
+      </c>
+      <c r="F8" t="n">
+        <v>533</v>
+      </c>
+      <c r="G8" t="n">
+        <v>394</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>16</v>
+      </c>
+      <c r="L8" t="n">
+        <v>256</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.9633802816901409</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4669</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>bert_classifier_4669.pth</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4669_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1773</v>
+      </c>
+      <c r="E9" t="n">
+        <v>846</v>
+      </c>
+      <c r="F9" t="n">
+        <v>533</v>
+      </c>
+      <c r="G9" t="n">
+        <v>394</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="K9" t="n">
+        <v>16</v>
+      </c>
+      <c r="L9" t="n">
+        <v>512</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.5267605633802817</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4720</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>bert_classifier_4720.pth</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4720_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1773</v>
+      </c>
+      <c r="E10" t="n">
+        <v>846</v>
+      </c>
+      <c r="F10" t="n">
+        <v>533</v>
+      </c>
+      <c r="G10" t="n">
+        <v>394</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>bert-large-uncased</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="K10" t="n">
+        <v>16</v>
+      </c>
+      <c r="L10" t="n">
+        <v>256</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.5267605633802817</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/classifier_testing/classifier_testing_parameters.xlsx
+++ b/classifier_testing/classifier_testing_parameters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -915,6 +915,56 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5959</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>bert_classifier_5959.pth</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5959_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>5889</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2499</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1963</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1427</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>bert-large-cased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K11" t="n">
+        <v>8</v>
+      </c>
+      <c r="L11" t="n">
+        <v>512</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.4320882852292021</v>
+      </c>
+      <c r="N11" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/classifier_testing/classifier_testing_parameters.xlsx
+++ b/classifier_testing/classifier_testing_parameters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -965,6 +965,106 @@
         <v>25</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6469</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>bert_classifier_6469.pth</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>6469_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1773</v>
+      </c>
+      <c r="E12" t="n">
+        <v>846</v>
+      </c>
+      <c r="F12" t="n">
+        <v>533</v>
+      </c>
+      <c r="G12" t="n">
+        <v>394</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>bert-large-cased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K12" t="n">
+        <v>32</v>
+      </c>
+      <c r="L12" t="n">
+        <v>256</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.5267605633802817</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3582</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>bert_classifier_3582.pth</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3582_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5889</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2499</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1963</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1427</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>bert-large-cased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K13" t="n">
+        <v>16</v>
+      </c>
+      <c r="L13" t="n">
+        <v>256</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.4320882852292021</v>
+      </c>
+      <c r="N13" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/classifier_testing/classifier_testing_parameters.xlsx
+++ b/classifier_testing/classifier_testing_parameters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1065,6 +1065,106 @@
         <v>25</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4746</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>bert_classifier_4746.pth</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4746_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6412</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2690</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2140</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1582</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K14" t="n">
+        <v>8</v>
+      </c>
+      <c r="L14" t="n">
+        <v>512</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.9251753702260327</v>
+      </c>
+      <c r="N14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>8731</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>bert_classifier_8731.pth</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>8731_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1773</v>
+      </c>
+      <c r="E15" t="n">
+        <v>846</v>
+      </c>
+      <c r="F15" t="n">
+        <v>533</v>
+      </c>
+      <c r="G15" t="n">
+        <v>394</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K15" t="n">
+        <v>8</v>
+      </c>
+      <c r="L15" t="n">
+        <v>512</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.9267605633802817</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/classifier_testing/classifier_testing_parameters.xlsx
+++ b/classifier_testing/classifier_testing_parameters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1165,6 +1165,606 @@
         <v>10</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5985</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>bert_classifier_5985.pth</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5985_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1773</v>
+      </c>
+      <c r="E16" t="n">
+        <v>846</v>
+      </c>
+      <c r="F16" t="n">
+        <v>533</v>
+      </c>
+      <c r="G16" t="n">
+        <v>394</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>bert-large-cased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K16" t="n">
+        <v>16</v>
+      </c>
+      <c r="L16" t="n">
+        <v>512</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.952112676056338</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5964</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>bert_classifier_5964.pth</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5964_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1773</v>
+      </c>
+      <c r="E17" t="n">
+        <v>846</v>
+      </c>
+      <c r="F17" t="n">
+        <v>533</v>
+      </c>
+      <c r="G17" t="n">
+        <v>394</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K17" t="n">
+        <v>32</v>
+      </c>
+      <c r="L17" t="n">
+        <v>256</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.9323943661971831</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5537</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>bert_classifier_5537.pth</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>5537_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1773</v>
+      </c>
+      <c r="E18" t="n">
+        <v>846</v>
+      </c>
+      <c r="F18" t="n">
+        <v>533</v>
+      </c>
+      <c r="G18" t="n">
+        <v>394</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="K18" t="n">
+        <v>16</v>
+      </c>
+      <c r="L18" t="n">
+        <v>512</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.5267605633802817</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4223</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>bert_classifier_4223.pth</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4223_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>6412</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2690</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2140</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1582</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="K19" t="n">
+        <v>8</v>
+      </c>
+      <c r="L19" t="n">
+        <v>256</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.436477007014809</v>
+      </c>
+      <c r="N19" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3142</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>bert_classifier_3142.pth</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3142_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5889</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2499</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1963</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1427</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>bert-large-uncased</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K20" t="n">
+        <v>16</v>
+      </c>
+      <c r="L20" t="n">
+        <v>256</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.4320882852292021</v>
+      </c>
+      <c r="N20" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>805</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>bert_classifier_805.pth</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>805_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>6412</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2690</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2140</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1582</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K21" t="n">
+        <v>16</v>
+      </c>
+      <c r="L21" t="n">
+        <v>512</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.9220576773187841</v>
+      </c>
+      <c r="N21" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2344</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>bert_classifier_2344.pth</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2344_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>6412</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2690</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2140</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1582</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="K22" t="n">
+        <v>64</v>
+      </c>
+      <c r="L22" t="n">
+        <v>256</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.436477007014809</v>
+      </c>
+      <c r="N22" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7918</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>bert_classifier_7918.pth</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>7918_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1773</v>
+      </c>
+      <c r="E23" t="n">
+        <v>846</v>
+      </c>
+      <c r="F23" t="n">
+        <v>533</v>
+      </c>
+      <c r="G23" t="n">
+        <v>394</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>bert-large-cased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K23" t="n">
+        <v>16</v>
+      </c>
+      <c r="L23" t="n">
+        <v>512</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.5267605633802817</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5909</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>bert_classifier_5909.pth</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>5909_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1773</v>
+      </c>
+      <c r="E24" t="n">
+        <v>846</v>
+      </c>
+      <c r="F24" t="n">
+        <v>533</v>
+      </c>
+      <c r="G24" t="n">
+        <v>394</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>bert-large-uncased</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K24" t="n">
+        <v>8</v>
+      </c>
+      <c r="L24" t="n">
+        <v>256</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.5267605633802817</v>
+      </c>
+      <c r="N24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2290</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>bert_classifier_2290.pth</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2290_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1773</v>
+      </c>
+      <c r="E25" t="n">
+        <v>846</v>
+      </c>
+      <c r="F25" t="n">
+        <v>533</v>
+      </c>
+      <c r="G25" t="n">
+        <v>394</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K25" t="n">
+        <v>16</v>
+      </c>
+      <c r="L25" t="n">
+        <v>512</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.9352112676056338</v>
+      </c>
+      <c r="N25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>8978</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>bert_classifier_8978.pth</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>8978_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1773</v>
+      </c>
+      <c r="E26" t="n">
+        <v>846</v>
+      </c>
+      <c r="F26" t="n">
+        <v>533</v>
+      </c>
+      <c r="G26" t="n">
+        <v>394</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>bert-large-uncased</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K26" t="n">
+        <v>8</v>
+      </c>
+      <c r="L26" t="n">
+        <v>256</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5267605633802817</v>
+      </c>
+      <c r="N26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3238</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>bert_classifier_3238.pth</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3238_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1773</v>
+      </c>
+      <c r="E27" t="n">
+        <v>846</v>
+      </c>
+      <c r="F27" t="n">
+        <v>533</v>
+      </c>
+      <c r="G27" t="n">
+        <v>394</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K27" t="n">
+        <v>32</v>
+      </c>
+      <c r="L27" t="n">
+        <v>512</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.923943661971831</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/classifier_testing/classifier_testing_parameters.xlsx
+++ b/classifier_testing/classifier_testing_parameters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2803,6 +2803,218 @@
         <v>10</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6270</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>bert_classifier_6270.pth</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>6270_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K47" t="n">
+        <v>32</v>
+      </c>
+      <c r="L47" t="n">
+        <v>256</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.9030303030303031</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.9139520681947157</v>
+      </c>
+      <c r="O47" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1573</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>bert_classifier_1573.pth</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1573_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E48" t="n">
+        <v>751</v>
+      </c>
+      <c r="F48" t="n">
+        <v>483</v>
+      </c>
+      <c r="G48" t="n">
+        <v>362</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K48" t="n">
+        <v>8</v>
+      </c>
+      <c r="L48" t="n">
+        <v>256</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.934375</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.9597635461885822</v>
+      </c>
+      <c r="O48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5027</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>bert_classifier_5027.pth</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>5027_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E49" t="n">
+        <v>751</v>
+      </c>
+      <c r="F49" t="n">
+        <v>483</v>
+      </c>
+      <c r="G49" t="n">
+        <v>362</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K49" t="n">
+        <v>16</v>
+      </c>
+      <c r="L49" t="n">
+        <v>512</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.94375</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.9324963381460557</v>
+      </c>
+      <c r="O49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1953</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>bert_classifier_1953.pth</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1953_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>bert-large-uncased</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K50" t="n">
+        <v>32</v>
+      </c>
+      <c r="L50" t="n">
+        <v>256</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.4203581526861451</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.2606201625543329</v>
+      </c>
+      <c r="O50" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/classifier_testing/classifier_testing_parameters.xlsx
+++ b/classifier_testing/classifier_testing_parameters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3015,6 +3015,1384 @@
         <v>25</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>7041</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>bert_classifier_7041.pth</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>7041_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>2</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K51" t="n">
+        <v>32</v>
+      </c>
+      <c r="L51" t="n">
+        <v>256</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.9212121212121213</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.9096074253315312</v>
+      </c>
+      <c r="O51" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2429</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>bert_classifier_2429.pth</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2429_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E52" t="n">
+        <v>751</v>
+      </c>
+      <c r="F52" t="n">
+        <v>483</v>
+      </c>
+      <c r="G52" t="n">
+        <v>362</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K52" t="n">
+        <v>8</v>
+      </c>
+      <c r="L52" t="n">
+        <v>256</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.953125</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.9436352887904774</v>
+      </c>
+      <c r="O52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2756</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>bert_classifier_2756.pth</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2756_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K53" t="n">
+        <v>8</v>
+      </c>
+      <c r="L53" t="n">
+        <v>256</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.9281385281385282</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.9045133771848579</v>
+      </c>
+      <c r="O53" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>9896</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>bert_classifier_9896.pth</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>9896_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>bert-large-uncased</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K54" t="n">
+        <v>16</v>
+      </c>
+      <c r="L54" t="n">
+        <v>512</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.939679547596607</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.9439029668284589</v>
+      </c>
+      <c r="O54" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>bert_classifier_1013.pth</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1013_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>bert-large-uncased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>4</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K55" t="n">
+        <v>32</v>
+      </c>
+      <c r="L55" t="n">
+        <v>256</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.944392082940622</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.9527490445017345</v>
+      </c>
+      <c r="O55" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7536</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>bert_classifier_7536.pth</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>7536_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>bert-large-uncased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J56" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K56" t="n">
+        <v>8</v>
+      </c>
+      <c r="L56" t="n">
+        <v>256</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.4203581526861451</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.2606201625543329</v>
+      </c>
+      <c r="O56" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>9112</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>bert_classifier_9112.pth</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>9112_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>bert-large-cased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>4</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K57" t="n">
+        <v>8</v>
+      </c>
+      <c r="L57" t="n">
+        <v>256</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.4203581526861451</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.2606201625543329</v>
+      </c>
+      <c r="O57" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1881</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>bert_classifier_1881.pth</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1881_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>4</v>
+      </c>
+      <c r="J58" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K58" t="n">
+        <v>16</v>
+      </c>
+      <c r="L58" t="n">
+        <v>256</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.9321394910461829</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.9372493104986103</v>
+      </c>
+      <c r="O58" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>9394</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>bert_classifier_9394.pth</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>9394_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E59" t="n">
+        <v>751</v>
+      </c>
+      <c r="F59" t="n">
+        <v>483</v>
+      </c>
+      <c r="G59" t="n">
+        <v>362</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K59" t="n">
+        <v>8</v>
+      </c>
+      <c r="L59" t="n">
+        <v>256</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.959375</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.9661299581217248</v>
+      </c>
+      <c r="O59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>9055</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>bert_classifier_9055.pth</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>9055_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>bert-large-cased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>3</v>
+      </c>
+      <c r="J60" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K60" t="n">
+        <v>16</v>
+      </c>
+      <c r="L60" t="n">
+        <v>256</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.9302544769085768</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.9302120073407201</v>
+      </c>
+      <c r="O60" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1169</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>bert_classifier_1169.pth</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1169_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>bert-large-cased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K61" t="n">
+        <v>8</v>
+      </c>
+      <c r="L61" t="n">
+        <v>256</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.9341991341991343</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.9234097212277402</v>
+      </c>
+      <c r="O61" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>4291</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>bert_classifier_4291.pth</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>4291_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K62" t="n">
+        <v>32</v>
+      </c>
+      <c r="L62" t="n">
+        <v>256</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.9368520263901979</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.9474200738364279</v>
+      </c>
+      <c r="O62" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7040</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>bert_classifier_7040.pth</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>7040_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E63" t="n">
+        <v>751</v>
+      </c>
+      <c r="F63" t="n">
+        <v>483</v>
+      </c>
+      <c r="G63" t="n">
+        <v>362</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>bert-large-uncased</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K63" t="n">
+        <v>8</v>
+      </c>
+      <c r="L63" t="n">
+        <v>512</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.959375</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.9183247574002792</v>
+      </c>
+      <c r="O63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>4968</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>bert_classifier_4968.pth</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>4968_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>4</v>
+      </c>
+      <c r="J64" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K64" t="n">
+        <v>16</v>
+      </c>
+      <c r="L64" t="n">
+        <v>256</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.944392082940622</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.950983640981145</v>
+      </c>
+      <c r="O64" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>638</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>bert_classifier_638.pth</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>638_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>4</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K65" t="n">
+        <v>8</v>
+      </c>
+      <c r="L65" t="n">
+        <v>256</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.942507068803016</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.9540880918508938</v>
+      </c>
+      <c r="O65" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1948</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>bert_classifier_1948.pth</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1948_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>3</v>
+      </c>
+      <c r="J66" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K66" t="n">
+        <v>8</v>
+      </c>
+      <c r="L66" t="n">
+        <v>256</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.9220779220779221</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.9001438944257193</v>
+      </c>
+      <c r="O66" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3879</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>bert_classifier_3879.pth</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>3879_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>bert-large-uncased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>4</v>
+      </c>
+      <c r="J67" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K67" t="n">
+        <v>16</v>
+      </c>
+      <c r="L67" t="n">
+        <v>512</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.9340245051837889</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.9409586731809806</v>
+      </c>
+      <c r="O67" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>4885</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>bert_classifier_4885.pth</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>4885_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K68" t="n">
+        <v>16</v>
+      </c>
+      <c r="L68" t="n">
+        <v>256</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.944392082940622</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.9423341828821608</v>
+      </c>
+      <c r="O68" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1608</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>bert_classifier_1608.pth</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1608_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E69" t="n">
+        <v>751</v>
+      </c>
+      <c r="F69" t="n">
+        <v>483</v>
+      </c>
+      <c r="G69" t="n">
+        <v>362</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>4</v>
+      </c>
+      <c r="J69" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K69" t="n">
+        <v>8</v>
+      </c>
+      <c r="L69" t="n">
+        <v>512</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.928125</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.9548954547292865</v>
+      </c>
+      <c r="O69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>577</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>bert_classifier_577.pth</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>577_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K70" t="n">
+        <v>32</v>
+      </c>
+      <c r="L70" t="n">
+        <v>256</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.9168831168831169</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.9107679466043546</v>
+      </c>
+      <c r="O70" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>6415</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>bert_classifier_6415.pth</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>6415_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E71" t="n">
+        <v>751</v>
+      </c>
+      <c r="F71" t="n">
+        <v>483</v>
+      </c>
+      <c r="G71" t="n">
+        <v>362</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>bert-large-uncased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K71" t="n">
+        <v>16</v>
+      </c>
+      <c r="L71" t="n">
+        <v>256</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.94375</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.9309814555173201</v>
+      </c>
+      <c r="O71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>6986</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>bert_classifier_6986.pth</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>6986_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E72" t="n">
+        <v>751</v>
+      </c>
+      <c r="F72" t="n">
+        <v>483</v>
+      </c>
+      <c r="G72" t="n">
+        <v>362</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>bert-large-cased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K72" t="n">
+        <v>16</v>
+      </c>
+      <c r="L72" t="n">
+        <v>512</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.94375</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.9489342786917666</v>
+      </c>
+      <c r="O72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>4421</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>bert_classifier_4421.pth</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>4421_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>bert-large-cased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K73" t="n">
+        <v>16</v>
+      </c>
+      <c r="L73" t="n">
+        <v>512</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.4203581526861451</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.2606201625543329</v>
+      </c>
+      <c r="O73" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>4761</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>bert_classifier_4761.pth</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>4761_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>bert-large-uncased</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K74" t="n">
+        <v>8</v>
+      </c>
+      <c r="L74" t="n">
+        <v>512</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.9298701298701298</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.9171723250126418</v>
+      </c>
+      <c r="O74" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>3513</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>bert_classifier_3513.pth</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>3513_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>bert-large-uncased</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K75" t="n">
+        <v>32</v>
+      </c>
+      <c r="L75" t="n">
+        <v>256</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.9290043290043291</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.9079209537324076</v>
+      </c>
+      <c r="O75" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>6857</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>bert_classifier_6857.pth</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>6857_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>bert-large-uncased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K76" t="n">
+        <v>8</v>
+      </c>
+      <c r="L76" t="n">
+        <v>512</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.9307359307359307</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.9266929611156388</v>
+      </c>
+      <c r="O76" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/classifier_testing/classifier_testing_parameters.xlsx
+++ b/classifier_testing/classifier_testing_parameters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4393,6 +4393,2179 @@
         <v>25</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>6687</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>bert_classifier_6687.pth</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>6687_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>3</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K77" t="n">
+        <v>16</v>
+      </c>
+      <c r="L77" t="n">
+        <v>256</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.9453345900094251</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.9490552329654287</v>
+      </c>
+      <c r="O77" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>6182</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>bert_classifier_6182.pth</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>6182_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E78" t="n">
+        <v>751</v>
+      </c>
+      <c r="F78" t="n">
+        <v>483</v>
+      </c>
+      <c r="G78" t="n">
+        <v>362</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>bert-large-uncased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>2</v>
+      </c>
+      <c r="J78" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K78" t="n">
+        <v>8</v>
+      </c>
+      <c r="L78" t="n">
+        <v>256</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.45625</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.3749169159189099</v>
+      </c>
+      <c r="O78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>5926</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>bert_classifier_5926.pth</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>5926_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>bert-large-uncased</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>2</v>
+      </c>
+      <c r="J79" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K79" t="n">
+        <v>8</v>
+      </c>
+      <c r="L79" t="n">
+        <v>512</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.94062205466541</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.9455845333131045</v>
+      </c>
+      <c r="O79" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>5404</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>bert_classifier_5404.pth</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>5404_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>bert-large-cased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>3</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K80" t="n">
+        <v>16</v>
+      </c>
+      <c r="L80" t="n">
+        <v>512</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.412987012987013</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.2818501569278668</v>
+      </c>
+      <c r="O80" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2619</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>bert_classifier_2619.pth</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2619_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E81" t="n">
+        <v>751</v>
+      </c>
+      <c r="F81" t="n">
+        <v>483</v>
+      </c>
+      <c r="G81" t="n">
+        <v>362</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>bert-large-uncased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>4</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K81" t="n">
+        <v>16</v>
+      </c>
+      <c r="L81" t="n">
+        <v>256</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.946875</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.9544240206529683</v>
+      </c>
+      <c r="O81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>6251</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>bert_classifier_6251.pth</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>6251_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>bert-large-cased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K82" t="n">
+        <v>16</v>
+      </c>
+      <c r="L82" t="n">
+        <v>256</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.94062205466541</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.9491071014546101</v>
+      </c>
+      <c r="O82" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2848</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>bert_classifier_2848.pth</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2848_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>bert-large-uncased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>4</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K83" t="n">
+        <v>32</v>
+      </c>
+      <c r="L83" t="n">
+        <v>256</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.9472196041470311</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.950866355702203</v>
+      </c>
+      <c r="O83" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>6208</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>bert_classifier_6208.pth</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>6208_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>bert-large-cased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K84" t="n">
+        <v>8</v>
+      </c>
+      <c r="L84" t="n">
+        <v>256</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.9160173160173161</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.9293712419966982</v>
+      </c>
+      <c r="O84" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2098</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>bert_classifier_2098.pth</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2098_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>3</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K85" t="n">
+        <v>16</v>
+      </c>
+      <c r="L85" t="n">
+        <v>512</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.9472196041470311</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.9456283739805844</v>
+      </c>
+      <c r="O85" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>382</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>bert_classifier_382.pth</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>382_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>3</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K86" t="n">
+        <v>32</v>
+      </c>
+      <c r="L86" t="n">
+        <v>256</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.9212121212121213</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.90781890845335</v>
+      </c>
+      <c r="O86" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>9274</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>bert_classifier_9274.pth</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>9274_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E87" t="n">
+        <v>751</v>
+      </c>
+      <c r="F87" t="n">
+        <v>483</v>
+      </c>
+      <c r="G87" t="n">
+        <v>362</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>bert-large-uncased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>3</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K87" t="n">
+        <v>16</v>
+      </c>
+      <c r="L87" t="n">
+        <v>256</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.928125</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.9430333746280259</v>
+      </c>
+      <c r="O87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>7111</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>bert_classifier_7111.pth</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>7111_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E88" t="n">
+        <v>751</v>
+      </c>
+      <c r="F88" t="n">
+        <v>483</v>
+      </c>
+      <c r="G88" t="n">
+        <v>362</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K88" t="n">
+        <v>32</v>
+      </c>
+      <c r="L88" t="n">
+        <v>256</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.79375</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.8143775391233692</v>
+      </c>
+      <c r="O88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>8747</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>bert_classifier_8747.pth</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>8747_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K89" t="n">
+        <v>8</v>
+      </c>
+      <c r="L89" t="n">
+        <v>256</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.943449575871819</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.9525170884435382</v>
+      </c>
+      <c r="O89" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>8221</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>bert_classifier_8221.pth</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>8221_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>bert-large-uncased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>4</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K90" t="n">
+        <v>32</v>
+      </c>
+      <c r="L90" t="n">
+        <v>256</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.9238095238095239</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.9091221304294311</v>
+      </c>
+      <c r="O90" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>3013</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>bert_classifier_3013.pth</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>3013_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>4</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K91" t="n">
+        <v>32</v>
+      </c>
+      <c r="L91" t="n">
+        <v>512</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.941564561734213</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.9558208486580226</v>
+      </c>
+      <c r="O91" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>3692</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>bert_classifier_3692.pth</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>3692_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>4</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K92" t="n">
+        <v>32</v>
+      </c>
+      <c r="L92" t="n">
+        <v>256</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.943449575871819</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.9508598119593255</v>
+      </c>
+      <c r="O92" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>211</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>bert_classifier_211.pth</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>211_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E93" t="n">
+        <v>751</v>
+      </c>
+      <c r="F93" t="n">
+        <v>483</v>
+      </c>
+      <c r="G93" t="n">
+        <v>362</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K93" t="n">
+        <v>8</v>
+      </c>
+      <c r="L93" t="n">
+        <v>256</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.9625</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.9603417630184961</v>
+      </c>
+      <c r="O93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>9175</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>bert_classifier_9175.pth</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>9175_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>2</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K94" t="n">
+        <v>8</v>
+      </c>
+      <c r="L94" t="n">
+        <v>512</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.944392082940622</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.9507692284594262</v>
+      </c>
+      <c r="O94" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>7682</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>bert_classifier_7682.pth</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>7682_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>bert-large-uncased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K95" t="n">
+        <v>32</v>
+      </c>
+      <c r="L95" t="n">
+        <v>256</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.9290043290043291</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.9170436776510547</v>
+      </c>
+      <c r="O95" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>bert_classifier_1998.pth</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1998_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>4</v>
+      </c>
+      <c r="J96" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K96" t="n">
+        <v>32</v>
+      </c>
+      <c r="L96" t="n">
+        <v>512</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.94062205466541</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.9509160962010685</v>
+      </c>
+      <c r="O96" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>3989</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>bert_classifier_3989.pth</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>3989_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>4</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K97" t="n">
+        <v>16</v>
+      </c>
+      <c r="L97" t="n">
+        <v>512</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.9246753246753247</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.9203082722310936</v>
+      </c>
+      <c r="O97" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>3998</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>bert_classifier_3998.pth</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>3998_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>4</v>
+      </c>
+      <c r="J98" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K98" t="n">
+        <v>32</v>
+      </c>
+      <c r="L98" t="n">
+        <v>512</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.9134199134199135</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.9156826912443388</v>
+      </c>
+      <c r="O98" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>463</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>bert_classifier_463.pth</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>463_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>bert-large-cased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K99" t="n">
+        <v>16</v>
+      </c>
+      <c r="L99" t="n">
+        <v>256</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.9324675324675324</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.9185941388965981</v>
+      </c>
+      <c r="O99" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>4783</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>bert_classifier_4783.pth</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>4783_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>3</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K100" t="n">
+        <v>16</v>
+      </c>
+      <c r="L100" t="n">
+        <v>512</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.9212121212121213</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.9094579326687611</v>
+      </c>
+      <c r="O100" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>3010</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>bert_classifier_3010.pth</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>3010_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K101" t="n">
+        <v>8</v>
+      </c>
+      <c r="L101" t="n">
+        <v>512</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.942507068803016</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.9508154573681203</v>
+      </c>
+      <c r="O101" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>3676</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>bert_classifier_3676.pth</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>3676_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>3</v>
+      </c>
+      <c r="J102" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K102" t="n">
+        <v>16</v>
+      </c>
+      <c r="L102" t="n">
+        <v>512</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.9238095238095239</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.9140995776817374</v>
+      </c>
+      <c r="O102" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>8807</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>bert_classifier_8807.pth</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>8807_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>bert-large-uncased</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>3</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K103" t="n">
+        <v>8</v>
+      </c>
+      <c r="L103" t="n">
+        <v>512</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.9264069264069265</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.9218204750625517</v>
+      </c>
+      <c r="O103" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>3175</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>bert_classifier_3175.pth</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>3175_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K104" t="n">
+        <v>32</v>
+      </c>
+      <c r="L104" t="n">
+        <v>256</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.9134199134199135</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.9020138356879602</v>
+      </c>
+      <c r="O104" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>5661</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>bert_classifier_5661.pth</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>5661_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>3</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K105" t="n">
+        <v>32</v>
+      </c>
+      <c r="L105" t="n">
+        <v>256</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.9151515151515152</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.9142554133542634</v>
+      </c>
+      <c r="O105" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>8256</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>bert_classifier_8256.pth</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>8256_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E106" t="n">
+        <v>751</v>
+      </c>
+      <c r="F106" t="n">
+        <v>483</v>
+      </c>
+      <c r="G106" t="n">
+        <v>362</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>4</v>
+      </c>
+      <c r="J106" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K106" t="n">
+        <v>16</v>
+      </c>
+      <c r="L106" t="n">
+        <v>256</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.95625</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.9715193579467206</v>
+      </c>
+      <c r="O106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>6331</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>bert_classifier_6331.pth</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>6331_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>3</v>
+      </c>
+      <c r="J107" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K107" t="n">
+        <v>8</v>
+      </c>
+      <c r="L107" t="n">
+        <v>512</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.412987012987013</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.2818501569278668</v>
+      </c>
+      <c r="O107" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>491</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>bert_classifier_491.pth</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>491_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>bert-large-uncased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>4</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K108" t="n">
+        <v>8</v>
+      </c>
+      <c r="L108" t="n">
+        <v>256</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.9500471253534402</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.9441226327193174</v>
+      </c>
+      <c r="O108" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2129</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>bert_classifier_2129.pth</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2129_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E109" t="n">
+        <v>751</v>
+      </c>
+      <c r="F109" t="n">
+        <v>483</v>
+      </c>
+      <c r="G109" t="n">
+        <v>362</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>3</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K109" t="n">
+        <v>8</v>
+      </c>
+      <c r="L109" t="n">
+        <v>256</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.93125</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.9369886906482936</v>
+      </c>
+      <c r="O109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>5858</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>bert_classifier_5858.pth</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>5858_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>bert-large-uncased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>3</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K110" t="n">
+        <v>8</v>
+      </c>
+      <c r="L110" t="n">
+        <v>256</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.9220779220779221</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.9169343466465326</v>
+      </c>
+      <c r="O110" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>4992</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>bert_classifier_4992.pth</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>4992_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>4</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K111" t="n">
+        <v>16</v>
+      </c>
+      <c r="L111" t="n">
+        <v>256</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.9142857142857143</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.9157847909608813</v>
+      </c>
+      <c r="O111" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>9746</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>bert_classifier_9746.pth</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>9746_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>bert-large-uncased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>3</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K112" t="n">
+        <v>8</v>
+      </c>
+      <c r="L112" t="n">
+        <v>256</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.412987012987013</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.2818501569278668</v>
+      </c>
+      <c r="O112" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>9336</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>bert_classifier_9336.pth</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>9336_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>bert-large-uncased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>3</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K113" t="n">
+        <v>16</v>
+      </c>
+      <c r="L113" t="n">
+        <v>256</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.9272727272727272</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.9217525698188481</v>
+      </c>
+      <c r="O113" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>8186</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>bert_classifier_8186.pth</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>8186_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>bert-large-uncased</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>2</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K114" t="n">
+        <v>8</v>
+      </c>
+      <c r="L114" t="n">
+        <v>256</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.9255411255411256</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.9187849003785484</v>
+      </c>
+      <c r="O114" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>8351</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>bert_classifier_8351.pth</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>8351_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>bert-large-uncased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>4</v>
+      </c>
+      <c r="J115" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K115" t="n">
+        <v>16</v>
+      </c>
+      <c r="L115" t="n">
+        <v>512</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.9387370405278039</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.9524097653235377</v>
+      </c>
+      <c r="O115" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>9140</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>bert_classifier_9140.pth</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>9140_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E116" t="n">
+        <v>751</v>
+      </c>
+      <c r="F116" t="n">
+        <v>483</v>
+      </c>
+      <c r="G116" t="n">
+        <v>362</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>bert-large-uncased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>4</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K116" t="n">
+        <v>16</v>
+      </c>
+      <c r="L116" t="n">
+        <v>512</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.953125</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.9656518545505205</v>
+      </c>
+      <c r="O116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1748</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>bert_classifier_1748.pth</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>1748_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E117" t="n">
+        <v>751</v>
+      </c>
+      <c r="F117" t="n">
+        <v>483</v>
+      </c>
+      <c r="G117" t="n">
+        <v>362</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>2</v>
+      </c>
+      <c r="J117" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K117" t="n">
+        <v>32</v>
+      </c>
+      <c r="L117" t="n">
+        <v>512</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.934375</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.9488900768807126</v>
+      </c>
+      <c r="O117" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/classifier_testing/classifier_testing_parameters.xlsx
+++ b/classifier_testing/classifier_testing_parameters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O117"/>
+  <dimension ref="A1:O148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6566,6 +6566,1649 @@
         <v>10</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2279</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>bert_classifier_2279.pth</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2279_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E118" t="n">
+        <v>751</v>
+      </c>
+      <c r="F118" t="n">
+        <v>483</v>
+      </c>
+      <c r="G118" t="n">
+        <v>362</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>3</v>
+      </c>
+      <c r="J118" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K118" t="n">
+        <v>16</v>
+      </c>
+      <c r="L118" t="n">
+        <v>512</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.946875</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.908620605402745</v>
+      </c>
+      <c r="O118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>4078</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>bert_classifier_4078.pth</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>4078_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>bert-large-cased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>4</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K119" t="n">
+        <v>8</v>
+      </c>
+      <c r="L119" t="n">
+        <v>512</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.9272727272727272</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.9251788453053917</v>
+      </c>
+      <c r="O119" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>9268</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>bert_classifier_9268.pth</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>9268_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>bert-large-uncased</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>3</v>
+      </c>
+      <c r="J120" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K120" t="n">
+        <v>8</v>
+      </c>
+      <c r="L120" t="n">
+        <v>256</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.9307359307359307</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.9125658019244507</v>
+      </c>
+      <c r="O120" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>6955</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>bert_classifier_6955.pth</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>6955_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>bert-large-uncased</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>2</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K121" t="n">
+        <v>8</v>
+      </c>
+      <c r="L121" t="n">
+        <v>256</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.935064935064935</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.9217584420598963</v>
+      </c>
+      <c r="O121" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>531</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>bert_classifier_531.pth</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>531_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E122" t="n">
+        <v>751</v>
+      </c>
+      <c r="F122" t="n">
+        <v>483</v>
+      </c>
+      <c r="G122" t="n">
+        <v>362</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>2</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K122" t="n">
+        <v>8</v>
+      </c>
+      <c r="L122" t="n">
+        <v>512</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.9255671544884432</v>
+      </c>
+      <c r="O122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>7049</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>bert_classifier_7049.pth</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>7049_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E123" t="n">
+        <v>751</v>
+      </c>
+      <c r="F123" t="n">
+        <v>483</v>
+      </c>
+      <c r="G123" t="n">
+        <v>362</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>bert-large-uncased</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>4</v>
+      </c>
+      <c r="J123" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K123" t="n">
+        <v>16</v>
+      </c>
+      <c r="L123" t="n">
+        <v>512</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.9485723133673636</v>
+      </c>
+      <c r="O123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>9432</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>bert_classifier_9432.pth</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>9432_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>3</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K124" t="n">
+        <v>16</v>
+      </c>
+      <c r="L124" t="n">
+        <v>512</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.90995670995671</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.914050049404255</v>
+      </c>
+      <c r="O124" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>3484</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>bert_classifier_3484.pth</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>3484_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>4</v>
+      </c>
+      <c r="J125" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K125" t="n">
+        <v>16</v>
+      </c>
+      <c r="L125" t="n">
+        <v>512</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.942507068803016</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.9541659087877574</v>
+      </c>
+      <c r="O125" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>9519</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>bert_classifier_9519.pth</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>9519_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E126" t="n">
+        <v>751</v>
+      </c>
+      <c r="F126" t="n">
+        <v>483</v>
+      </c>
+      <c r="G126" t="n">
+        <v>362</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>2</v>
+      </c>
+      <c r="J126" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K126" t="n">
+        <v>8</v>
+      </c>
+      <c r="L126" t="n">
+        <v>512</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.9207814959294388</v>
+      </c>
+      <c r="O126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>731</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>bert_classifier_731.pth</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>731_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E127" t="n">
+        <v>751</v>
+      </c>
+      <c r="F127" t="n">
+        <v>483</v>
+      </c>
+      <c r="G127" t="n">
+        <v>362</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>3</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K127" t="n">
+        <v>32</v>
+      </c>
+      <c r="L127" t="n">
+        <v>512</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.91875</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.90091638923117</v>
+      </c>
+      <c r="O127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>3682</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>bert_classifier_3682.pth</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>3682_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E128" t="n">
+        <v>751</v>
+      </c>
+      <c r="F128" t="n">
+        <v>483</v>
+      </c>
+      <c r="G128" t="n">
+        <v>362</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>bert-large-uncased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>4</v>
+      </c>
+      <c r="J128" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K128" t="n">
+        <v>8</v>
+      </c>
+      <c r="L128" t="n">
+        <v>512</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0.946875</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.9437882970029206</v>
+      </c>
+      <c r="O128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>9754</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>bert_classifier_9754.pth</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>9754_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>4</v>
+      </c>
+      <c r="J129" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K129" t="n">
+        <v>32</v>
+      </c>
+      <c r="L129" t="n">
+        <v>256</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0.94062205466541</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.9388723943014888</v>
+      </c>
+      <c r="O129" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>7978</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>bert_classifier_7978.pth</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>7978_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>bert-large-uncased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>3</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K130" t="n">
+        <v>8</v>
+      </c>
+      <c r="L130" t="n">
+        <v>512</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0.922943722943723</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.9219734741624814</v>
+      </c>
+      <c r="O130" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>5360</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>bert_classifier_5360.pth</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>5360_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E131" t="n">
+        <v>751</v>
+      </c>
+      <c r="F131" t="n">
+        <v>483</v>
+      </c>
+      <c r="G131" t="n">
+        <v>362</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>4</v>
+      </c>
+      <c r="J131" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K131" t="n">
+        <v>16</v>
+      </c>
+      <c r="L131" t="n">
+        <v>512</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0.9625</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.9497627738753419</v>
+      </c>
+      <c r="O131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>5865</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>bert_classifier_5865.pth</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>5865_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>2</v>
+      </c>
+      <c r="J132" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K132" t="n">
+        <v>8</v>
+      </c>
+      <c r="L132" t="n">
+        <v>256</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0.9142857142857143</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.9079308620431009</v>
+      </c>
+      <c r="O132" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>3705</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>bert_classifier_3705.pth</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>3705_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>bert-large-cased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>4</v>
+      </c>
+      <c r="J133" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K133" t="n">
+        <v>16</v>
+      </c>
+      <c r="L133" t="n">
+        <v>512</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0.9272727272727272</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.9250826049026294</v>
+      </c>
+      <c r="O133" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>7329</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>bert_classifier_7329.pth</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>7329_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>3</v>
+      </c>
+      <c r="J134" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K134" t="n">
+        <v>8</v>
+      </c>
+      <c r="L134" t="n">
+        <v>256</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0.922943722943723</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.907901750532466</v>
+      </c>
+      <c r="O134" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>6524</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>bert_classifier_6524.pth</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>6524_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E135" t="n">
+        <v>751</v>
+      </c>
+      <c r="F135" t="n">
+        <v>483</v>
+      </c>
+      <c r="G135" t="n">
+        <v>362</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>bert-large-uncased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>3</v>
+      </c>
+      <c r="J135" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K135" t="n">
+        <v>16</v>
+      </c>
+      <c r="L135" t="n">
+        <v>256</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0.946875</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.9253992408738696</v>
+      </c>
+      <c r="O135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2468</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>bert_classifier_2468.pth</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2468_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E136" t="n">
+        <v>751</v>
+      </c>
+      <c r="F136" t="n">
+        <v>483</v>
+      </c>
+      <c r="G136" t="n">
+        <v>362</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>bert-large-uncased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>2</v>
+      </c>
+      <c r="J136" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K136" t="n">
+        <v>8</v>
+      </c>
+      <c r="L136" t="n">
+        <v>512</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0.45625</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.3749169159189099</v>
+      </c>
+      <c r="O136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>9216</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>bert_classifier_9216.pth</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>9216_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>3</v>
+      </c>
+      <c r="J137" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K137" t="n">
+        <v>16</v>
+      </c>
+      <c r="L137" t="n">
+        <v>512</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0.9168831168831169</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.9125399777332881</v>
+      </c>
+      <c r="O137" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>6781</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>bert_classifier_6781.pth</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>6781_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>4</v>
+      </c>
+      <c r="J138" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K138" t="n">
+        <v>32</v>
+      </c>
+      <c r="L138" t="n">
+        <v>256</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0.9509896324222432</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.9541526847040845</v>
+      </c>
+      <c r="O138" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>121</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>bert_classifier_121.pth</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>121_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E139" t="n">
+        <v>751</v>
+      </c>
+      <c r="F139" t="n">
+        <v>483</v>
+      </c>
+      <c r="G139" t="n">
+        <v>362</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>3</v>
+      </c>
+      <c r="J139" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K139" t="n">
+        <v>8</v>
+      </c>
+      <c r="L139" t="n">
+        <v>512</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0.934375</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.9435797519476329</v>
+      </c>
+      <c r="O139" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>6966</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>bert_classifier_6966.pth</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>6966_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>bert-large-cased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>2</v>
+      </c>
+      <c r="J140" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K140" t="n">
+        <v>8</v>
+      </c>
+      <c r="L140" t="n">
+        <v>256</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0.9359095193213949</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.9437886719905626</v>
+      </c>
+      <c r="O140" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>8574</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>bert_classifier_8574.pth</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>8574_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2245</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>bert-large-uncased</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>3</v>
+      </c>
+      <c r="J141" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K141" t="n">
+        <v>8</v>
+      </c>
+      <c r="L141" t="n">
+        <v>512</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0.8982092365692743</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.918279242088766</v>
+      </c>
+      <c r="O141" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>8196</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>bert_classifier_8196.pth</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>8196_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>2</v>
+      </c>
+      <c r="J142" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K142" t="n">
+        <v>16</v>
+      </c>
+      <c r="L142" t="n">
+        <v>512</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0.9238095238095239</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.9094281720808854</v>
+      </c>
+      <c r="O142" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>8525</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>bert_classifier_8525.pth</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>8525_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E143" t="n">
+        <v>751</v>
+      </c>
+      <c r="F143" t="n">
+        <v>483</v>
+      </c>
+      <c r="G143" t="n">
+        <v>362</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>4</v>
+      </c>
+      <c r="J143" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K143" t="n">
+        <v>8</v>
+      </c>
+      <c r="L143" t="n">
+        <v>256</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0.94375</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.9377344120220378</v>
+      </c>
+      <c r="O143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>4482</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>bert_classifier_4482.pth</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>4482_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E144" t="n">
+        <v>751</v>
+      </c>
+      <c r="F144" t="n">
+        <v>483</v>
+      </c>
+      <c r="G144" t="n">
+        <v>362</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>bert-base-uncased</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>3</v>
+      </c>
+      <c r="J144" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K144" t="n">
+        <v>32</v>
+      </c>
+      <c r="L144" t="n">
+        <v>512</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0.934375</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.9369048674940607</v>
+      </c>
+      <c r="O144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>8445</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>bert_classifier_8445.pth</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>8445_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E145" t="n">
+        <v>751</v>
+      </c>
+      <c r="F145" t="n">
+        <v>483</v>
+      </c>
+      <c r="G145" t="n">
+        <v>362</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>bert-large-cased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>2</v>
+      </c>
+      <c r="J145" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K145" t="n">
+        <v>32</v>
+      </c>
+      <c r="L145" t="n">
+        <v>256</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0.86875</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.8782273835371769</v>
+      </c>
+      <c r="O145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>48</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>bert_classifier_48.pth</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>48_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>bert-large-uncased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>2</v>
+      </c>
+      <c r="J146" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="K146" t="n">
+        <v>16</v>
+      </c>
+      <c r="L146" t="n">
+        <v>256</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0.9376623376623376</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0.9140926271920964</v>
+      </c>
+      <c r="O146" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>6875</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>bert_classifier_6875.pth</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>6875_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>5771</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1441</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>bert-large-cased-whole-word-masking</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>4</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="K147" t="n">
+        <v>8</v>
+      </c>
+      <c r="L147" t="n">
+        <v>256</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0.412987012987013</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0.2818501569278668</v>
+      </c>
+      <c r="O147" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>5794</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>bert_classifier_5794.pth</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>5794_accuracy_scores.docx</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E148" t="n">
+        <v>751</v>
+      </c>
+      <c r="F148" t="n">
+        <v>483</v>
+      </c>
+      <c r="G148" t="n">
+        <v>362</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>4</v>
+      </c>
+      <c r="J148" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="K148" t="n">
+        <v>32</v>
+      </c>
+      <c r="L148" t="n">
+        <v>256</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0.965625</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0.9541576527639333</v>
+      </c>
+      <c r="O148" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
